--- a/excel_files/Comparison - CP013352 & CP013252.xlsx
+++ b/excel_files/Comparison - CP013352 & CP013252.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="67">
   <si>
     <t>CP013352</t>
   </si>
@@ -125,49 +125,91 @@
     <t>1.0*</t>
   </si>
   <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
     <t>5.0</t>
   </si>
   <si>
-    <t>8.0</t>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
   </si>
   <si>
     <t>4.0</t>
   </si>
   <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>0.0*</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>0*</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
     <t>19.0</t>
   </si>
   <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>0.0*</t>
-  </si>
-  <si>
-    <t>9.0</t>
+    <t>20.0</t>
   </si>
   <si>
     <t>10.0</t>
   </si>
   <si>
-    <t>0*</t>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
   </si>
   <si>
     <t>18.0</t>
   </si>
   <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
   </si>
   <si>
     <t>17.0</t>
@@ -635,79 +677,79 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>40</v>
-      </c>
       <c r="AF3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -721,19 +763,19 @@
         <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
         <v>34</v>
@@ -742,16 +784,16 @@
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N4" t="s">
         <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P4" t="s">
         <v>34</v>
@@ -760,7 +802,7 @@
         <v>34</v>
       </c>
       <c r="R4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="S4" t="s">
         <v>34</v>
@@ -781,7 +823,7 @@
         <v>34</v>
       </c>
       <c r="Y4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z4" t="s">
         <v>37</v>
@@ -790,7 +832,7 @@
         <v>36</v>
       </c>
       <c r="AB4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AC4" t="s">
         <v>34</v>
@@ -799,10 +841,10 @@
         <v>34</v>
       </c>
       <c r="AE4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AF4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -819,7 +861,7 @@
         <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -911,19 +953,19 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
         <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
       </c>
       <c r="I6" t="s">
         <v>45</v>
@@ -935,13 +977,13 @@
         <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M6" t="s">
         <v>45</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O6" t="s">
         <v>45</v>
@@ -953,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="R6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="S6" t="s">
         <v>34</v>
@@ -974,17 +1016,17 @@
         <v>34</v>
       </c>
       <c r="Y6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Z6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB6" t="s">
         <v>37</v>
       </c>
-      <c r="AA6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>45</v>
-      </c>
       <c r="AC6" t="s">
         <v>34</v>
       </c>
@@ -992,10 +1034,10 @@
         <v>34</v>
       </c>
       <c r="AE6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1006,80 +1048,80 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="AB7" t="s">
         <v>39</v>
       </c>
-      <c r="M7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V7" t="s">
-        <v>34</v>
-      </c>
-      <c r="W7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>42</v>
-      </c>
       <c r="AC7" t="s">
         <v>34</v>
       </c>
@@ -1087,10 +1129,10 @@
         <v>34</v>
       </c>
       <c r="AE7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1101,10 +1143,10 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -1113,38 +1155,38 @@
         <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" t="s">
         <v>44</v>
       </c>
-      <c r="J8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8" t="s">
-        <v>38</v>
-      </c>
       <c r="S8" t="s">
         <v>34</v>
       </c>
@@ -1164,16 +1206,16 @@
         <v>34</v>
       </c>
       <c r="Y8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Z8" t="s">
         <v>36</v>
       </c>
       <c r="AA8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AC8" t="s">
         <v>34</v>
@@ -1182,10 +1224,10 @@
         <v>34</v>
       </c>
       <c r="AE8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AF8" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1214,7 +1256,7 @@
         <v>34</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s">
         <v>34</v>
@@ -1312,7 +1354,7 @@
         <v>34</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
         <v>34</v>
@@ -1386,22 +1428,22 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
         <v>34</v>
@@ -1410,16 +1452,16 @@
         <v>34</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" t="s">
         <v>50</v>
       </c>
-      <c r="N11" t="s">
-        <v>39</v>
-      </c>
       <c r="O11" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="P11" t="s">
         <v>34</v>
@@ -1428,7 +1470,7 @@
         <v>34</v>
       </c>
       <c r="R11" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S11" t="s">
         <v>34</v>
@@ -1449,16 +1491,16 @@
         <v>34</v>
       </c>
       <c r="Y11" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="Z11" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="AA11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AB11" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="AC11" t="s">
         <v>34</v>
@@ -1467,10 +1509,10 @@
         <v>34</v>
       </c>
       <c r="AE11" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="AF11" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1481,10 +1523,10 @@
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -1493,10 +1535,10 @@
         <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s">
         <v>34</v>
@@ -1505,16 +1547,16 @@
         <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N12" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="P12" t="s">
         <v>34</v>
@@ -1523,7 +1565,7 @@
         <v>34</v>
       </c>
       <c r="R12" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="S12" t="s">
         <v>34</v>
@@ -1544,16 +1586,16 @@
         <v>34</v>
       </c>
       <c r="Y12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Z12" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="AA12" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AB12" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="AC12" t="s">
         <v>34</v>
@@ -1562,10 +1604,10 @@
         <v>34</v>
       </c>
       <c r="AE12" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1576,7 +1618,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
@@ -1585,70 +1627,70 @@
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" t="s">
+        <v>34</v>
+      </c>
+      <c r="V13" t="s">
+        <v>34</v>
+      </c>
+      <c r="W13" t="s">
+        <v>34</v>
+      </c>
+      <c r="X13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z13" t="s">
         <v>38</v>
       </c>
-      <c r="J13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" t="s">
-        <v>40</v>
-      </c>
-      <c r="P13" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="AA13" t="s">
         <v>41</v>
       </c>
-      <c r="S13" t="s">
-        <v>34</v>
-      </c>
-      <c r="T13" t="s">
-        <v>34</v>
-      </c>
-      <c r="U13" t="s">
-        <v>34</v>
-      </c>
-      <c r="V13" t="s">
-        <v>34</v>
-      </c>
-      <c r="W13" t="s">
-        <v>34</v>
-      </c>
-      <c r="X13" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>38</v>
-      </c>
       <c r="AB13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AC13" t="s">
         <v>34</v>
@@ -1657,10 +1699,10 @@
         <v>34</v>
       </c>
       <c r="AE13" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AF13" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -1671,10 +1713,10 @@
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
@@ -1683,10 +1725,10 @@
         <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J14" t="s">
         <v>34</v>
@@ -1695,16 +1737,16 @@
         <v>34</v>
       </c>
       <c r="L14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="M14" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="N14" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P14" t="s">
         <v>34</v>
@@ -1713,7 +1755,7 @@
         <v>34</v>
       </c>
       <c r="R14" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="S14" t="s">
         <v>34</v>
@@ -1734,16 +1776,16 @@
         <v>34</v>
       </c>
       <c r="Y14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Z14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA14" t="s">
         <v>37</v>
       </c>
-      <c r="AA14" t="s">
-        <v>40</v>
-      </c>
       <c r="AB14" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="AC14" t="s">
         <v>34</v>
@@ -1752,10 +1794,10 @@
         <v>34</v>
       </c>
       <c r="AE14" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AF14" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:32">
@@ -1802,10 +1844,10 @@
         <v>34</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="R15" t="s">
         <v>34</v>
@@ -1897,10 +1939,10 @@
         <v>34</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="R16" t="s">
         <v>34</v>
@@ -1956,79 +1998,79 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U17" t="s">
+        <v>34</v>
+      </c>
+      <c r="V17" t="s">
+        <v>34</v>
+      </c>
+      <c r="W17" t="s">
+        <v>34</v>
+      </c>
+      <c r="X17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA17" t="s">
         <v>42</v>
       </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" t="s">
-        <v>34</v>
-      </c>
-      <c r="L17" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17" t="s">
-        <v>41</v>
-      </c>
-      <c r="O17" t="s">
-        <v>40</v>
-      </c>
-      <c r="P17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>34</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S17" t="s">
-        <v>34</v>
-      </c>
-      <c r="T17" t="s">
-        <v>34</v>
-      </c>
-      <c r="U17" t="s">
-        <v>34</v>
-      </c>
-      <c r="V17" t="s">
-        <v>34</v>
-      </c>
-      <c r="W17" t="s">
-        <v>34</v>
-      </c>
-      <c r="X17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>41</v>
-      </c>
       <c r="AB17" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC17" t="s">
         <v>34</v>
@@ -2037,10 +2079,10 @@
         <v>34</v>
       </c>
       <c r="AE17" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AF17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:32">
@@ -2096,7 +2138,7 @@
         <v>34</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
         <v>34</v>
@@ -2194,7 +2236,7 @@
         <v>34</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="U19" t="s">
         <v>34</v>
@@ -2292,7 +2334,7 @@
         <v>34</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="V20" t="s">
         <v>34</v>
@@ -2390,7 +2432,7 @@
         <v>34</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="W21" t="s">
         <v>34</v>
@@ -2488,7 +2530,7 @@
         <v>34</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="X22" t="s">
         <v>34</v>
@@ -2586,7 +2628,7 @@
         <v>34</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Y23" t="s">
         <v>34</v>
@@ -2621,79 +2663,79 @@
         <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" t="s">
+        <v>43</v>
+      </c>
+      <c r="S24" t="s">
+        <v>34</v>
+      </c>
+      <c r="T24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U24" t="s">
+        <v>34</v>
+      </c>
+      <c r="V24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W24" t="s">
+        <v>34</v>
+      </c>
+      <c r="X24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z24" t="s">
         <v>38</v>
       </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" t="s">
-        <v>40</v>
-      </c>
-      <c r="N24" t="s">
-        <v>38</v>
-      </c>
-      <c r="O24" t="s">
-        <v>40</v>
-      </c>
-      <c r="P24" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>34</v>
-      </c>
-      <c r="R24" t="s">
-        <v>42</v>
-      </c>
-      <c r="S24" t="s">
-        <v>34</v>
-      </c>
-      <c r="T24" t="s">
-        <v>34</v>
-      </c>
-      <c r="U24" t="s">
-        <v>34</v>
-      </c>
-      <c r="V24" t="s">
-        <v>34</v>
-      </c>
-      <c r="W24" t="s">
-        <v>34</v>
-      </c>
-      <c r="X24" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>40</v>
-      </c>
       <c r="AA24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AB24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC24" t="s">
         <v>34</v>
@@ -2702,10 +2744,10 @@
         <v>34</v>
       </c>
       <c r="AE24" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AF24" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:32">
@@ -2728,79 +2770,79 @@
         <v>37</v>
       </c>
       <c r="H25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" t="s">
+        <v>41</v>
+      </c>
+      <c r="O25" t="s">
+        <v>37</v>
+      </c>
+      <c r="P25" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" t="s">
+        <v>42</v>
+      </c>
+      <c r="S25" t="s">
+        <v>34</v>
+      </c>
+      <c r="T25" t="s">
+        <v>34</v>
+      </c>
+      <c r="U25" t="s">
+        <v>34</v>
+      </c>
+      <c r="V25" t="s">
+        <v>34</v>
+      </c>
+      <c r="W25" t="s">
+        <v>34</v>
+      </c>
+      <c r="X25" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE25" t="s">
         <v>36</v>
       </c>
-      <c r="I25" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" t="s">
-        <v>34</v>
-      </c>
-      <c r="K25" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" t="s">
-        <v>40</v>
-      </c>
-      <c r="N25" t="s">
-        <v>38</v>
-      </c>
-      <c r="O25" t="s">
-        <v>40</v>
-      </c>
-      <c r="P25" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>34</v>
-      </c>
-      <c r="R25" t="s">
-        <v>41</v>
-      </c>
-      <c r="S25" t="s">
-        <v>34</v>
-      </c>
-      <c r="T25" t="s">
-        <v>34</v>
-      </c>
-      <c r="U25" t="s">
-        <v>34</v>
-      </c>
-      <c r="V25" t="s">
-        <v>34</v>
-      </c>
-      <c r="W25" t="s">
-        <v>34</v>
-      </c>
-      <c r="X25" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>40</v>
-      </c>
       <c r="AF25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:32">
@@ -2811,7 +2853,7 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -2820,82 +2862,82 @@
         <v>34</v>
       </c>
       <c r="G26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" t="s">
+        <v>57</v>
+      </c>
+      <c r="N26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O26" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" t="s">
+        <v>42</v>
+      </c>
+      <c r="S26" t="s">
+        <v>34</v>
+      </c>
+      <c r="T26" t="s">
+        <v>34</v>
+      </c>
+      <c r="U26" t="s">
+        <v>34</v>
+      </c>
+      <c r="V26" t="s">
+        <v>34</v>
+      </c>
+      <c r="W26" t="s">
+        <v>34</v>
+      </c>
+      <c r="X26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF26" t="s">
         <v>45</v>
-      </c>
-      <c r="H26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K26" t="s">
-        <v>34</v>
-      </c>
-      <c r="L26" t="s">
-        <v>51</v>
-      </c>
-      <c r="M26" t="s">
-        <v>49</v>
-      </c>
-      <c r="N26" t="s">
-        <v>38</v>
-      </c>
-      <c r="O26" t="s">
-        <v>40</v>
-      </c>
-      <c r="P26" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>34</v>
-      </c>
-      <c r="R26" t="s">
-        <v>41</v>
-      </c>
-      <c r="S26" t="s">
-        <v>34</v>
-      </c>
-      <c r="T26" t="s">
-        <v>34</v>
-      </c>
-      <c r="U26" t="s">
-        <v>34</v>
-      </c>
-      <c r="V26" t="s">
-        <v>34</v>
-      </c>
-      <c r="W26" t="s">
-        <v>34</v>
-      </c>
-      <c r="X26" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:32">
@@ -2906,79 +2948,79 @@
         <v>34</v>
       </c>
       <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" t="s">
+        <v>57</v>
+      </c>
+      <c r="N27" t="s">
+        <v>43</v>
+      </c>
+      <c r="O27" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S27" t="s">
+        <v>34</v>
+      </c>
+      <c r="T27" t="s">
+        <v>34</v>
+      </c>
+      <c r="U27" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" t="s">
+        <v>34</v>
+      </c>
+      <c r="W27" t="s">
+        <v>34</v>
+      </c>
+      <c r="X27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA27" t="s">
         <v>42</v>
       </c>
-      <c r="E27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" t="s">
-        <v>34</v>
-      </c>
-      <c r="K27" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" t="s">
-        <v>40</v>
-      </c>
-      <c r="N27" t="s">
-        <v>41</v>
-      </c>
-      <c r="O27" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>34</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S27" t="s">
-        <v>34</v>
-      </c>
-      <c r="T27" t="s">
-        <v>34</v>
-      </c>
-      <c r="U27" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" t="s">
-        <v>34</v>
-      </c>
-      <c r="W27" t="s">
-        <v>34</v>
-      </c>
-      <c r="X27" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>41</v>
-      </c>
       <c r="AB27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC27" t="s">
         <v>34</v>
@@ -2987,10 +3029,10 @@
         <v>34</v>
       </c>
       <c r="AE27" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AF27" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:32">
@@ -3076,7 +3118,7 @@
         <v>34</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AD28" t="s">
         <v>34</v>
@@ -3174,7 +3216,7 @@
         <v>34</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AE29" t="s">
         <v>34</v>
@@ -3191,10 +3233,10 @@
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
         <v>34</v>
@@ -3203,10 +3245,10 @@
         <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J30" t="s">
         <v>34</v>
@@ -3215,55 +3257,55 @@
         <v>34</v>
       </c>
       <c r="L30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N30" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>34</v>
+      </c>
+      <c r="R30" t="s">
+        <v>44</v>
+      </c>
+      <c r="S30" t="s">
+        <v>34</v>
+      </c>
+      <c r="T30" t="s">
+        <v>34</v>
+      </c>
+      <c r="U30" t="s">
+        <v>34</v>
+      </c>
+      <c r="V30" t="s">
+        <v>34</v>
+      </c>
+      <c r="W30" t="s">
+        <v>34</v>
+      </c>
+      <c r="X30" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA30" t="s">
         <v>39</v>
       </c>
-      <c r="M30" t="s">
-        <v>40</v>
-      </c>
-      <c r="N30" t="s">
-        <v>36</v>
-      </c>
-      <c r="O30" t="s">
-        <v>40</v>
-      </c>
-      <c r="P30" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>34</v>
-      </c>
-      <c r="R30" t="s">
-        <v>38</v>
-      </c>
-      <c r="S30" t="s">
-        <v>34</v>
-      </c>
-      <c r="T30" t="s">
-        <v>34</v>
-      </c>
-      <c r="U30" t="s">
-        <v>34</v>
-      </c>
-      <c r="V30" t="s">
-        <v>34</v>
-      </c>
-      <c r="W30" t="s">
-        <v>34</v>
-      </c>
-      <c r="X30" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>38</v>
-      </c>
       <c r="AB30" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AC30" t="s">
         <v>34</v>
@@ -3272,10 +3314,10 @@
         <v>34</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="AF30" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:32">
@@ -3286,22 +3328,22 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H31" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="J31" t="s">
         <v>34</v>
@@ -3310,16 +3352,16 @@
         <v>34</v>
       </c>
       <c r="L31" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="M31" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="N31" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="O31" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="P31" t="s">
         <v>34</v>
@@ -3328,7 +3370,7 @@
         <v>34</v>
       </c>
       <c r="R31" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="S31" t="s">
         <v>34</v>
@@ -3349,16 +3391,16 @@
         <v>34</v>
       </c>
       <c r="Y31" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Z31" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AA31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB31" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AC31" t="s">
         <v>34</v>
@@ -3367,10 +3409,10 @@
         <v>34</v>
       </c>
       <c r="AE31" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
